--- a/data/trans_dic/Q20C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,1</t>
+          <t>0,0; 67,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 60,72</t>
+          <t>13,18; 60,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 48,7</t>
+          <t>6,28; 50,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 37,24</t>
+          <t>3,45; 36,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 56,17</t>
+          <t>8,0; 58,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,68</t>
+          <t>0,0; 31,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 56,13</t>
+          <t>6,49; 50,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 48,94</t>
+          <t>7,76; 50,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 49,15</t>
+          <t>5,74; 45,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 38,56</t>
+          <t>8,97; 38,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 40,49</t>
+          <t>10,57; 43,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 33,94</t>
+          <t>7,51; 34,29</t>
         </is>
       </c>
     </row>
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,92; 64,43</t>
+          <t>13,71; 64,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,76</t>
+          <t>0,0; 55,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 61,94</t>
+          <t>10,29; 61,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,59</t>
+          <t>0,0; 45,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,8; 59,61</t>
+          <t>19,66; 62,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 60,33</t>
+          <t>7,72; 64,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,49</t>
+          <t>0,0; 19,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,13</t>
+          <t>0,0; 32,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,45; 53,39</t>
+          <t>20,5; 55,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 46,43</t>
+          <t>11,75; 47,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 37,38</t>
+          <t>7,5; 36,46</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 79,5</t>
+          <t>11,67; 80,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,38</t>
+          <t>0,0; 59,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,57</t>
+          <t>0,0; 45,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 47,19</t>
+          <t>5,87; 45,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 59,1</t>
+          <t>10,92; 57,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 52,92</t>
+          <t>6,7; 54,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 62,67</t>
+          <t>8,26; 63,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,19; 48,13</t>
+          <t>13,9; 50,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 35,01</t>
+          <t>5,66; 33,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 44,43</t>
+          <t>4,39; 43,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 42,68</t>
+          <t>7,0; 39,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 64,47</t>
+          <t>14,4; 64,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,21</t>
+          <t>0,0; 33,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 59,29</t>
+          <t>6,91; 57,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,74; 60,97</t>
+          <t>21,51; 60,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,78</t>
+          <t>0,0; 34,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 48,25</t>
+          <t>9,86; 49,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 52,76</t>
+          <t>10,76; 52,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 40,07</t>
+          <t>9,4; 43,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 42,65</t>
+          <t>7,65; 41,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 32,8</t>
+          <t>8,39; 35,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 44,84</t>
+          <t>12,96; 44,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 45,33</t>
+          <t>19,47; 47,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,49; 44,76</t>
+          <t>14,05; 43,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,52; 32,28</t>
+          <t>9,37; 30,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 35,68</t>
+          <t>11,87; 38,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,44; 38,93</t>
+          <t>17,12; 40,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 30,56</t>
+          <t>8,14; 30,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 37,67</t>
+          <t>17,96; 37,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,25; 39,03</t>
+          <t>16,52; 39,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 28,34</t>
+          <t>11,24; 29,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 31,22</t>
+          <t>13,61; 30,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,95; 31,65</t>
+          <t>17,01; 32,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,23; 33,82</t>
+          <t>16,72; 33,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,4; 31,22</t>
+          <t>15,63; 30,9</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mayor tiempo de espera (más de 7 meses) para ser hopitalizado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4949</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2850</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2396</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3783</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6992</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3921</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1949; 8934</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1097; 8782</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>483; 5161</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>887; 6536</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6017</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>836; 6455</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>840; 5454</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>970; 7610</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3014; 12935</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3204; 13168</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1867; 8520</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5508</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2095</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9468</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14975</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6258</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3856</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1585</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2045; 9683</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6299</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1132; 6798</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4082</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5034; 15895</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1047; 8691</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2088</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5073</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8305; 22548</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2920; 11730</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1621; 7882</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3484</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3881</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5313</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2973</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7364</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5313</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4289</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>993; 6846</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2175</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6819</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6457</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>983; 7695</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1891; 9974</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>861; 7027</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>576; 4422</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3510; 12868</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1828; 10757</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1063; 10642</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1482; 8424</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5138</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6033</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3415</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5423</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6138</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8833</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10418</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1753; 7908</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5068</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>772; 6476</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3769; 10686</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4149</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1914; 9648</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2255; 11031</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1463; 6718</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1861; 10139</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2895; 12225</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4165; 14185</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6440; 15659</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11143</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14839</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8690</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16019</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8289</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17560</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>33418</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27161</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23127</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4680; 14587</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5604; 18409</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6087; 19857</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9714; 22730</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3990; 14723</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14580; 30653</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9952; 23784</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4944; 12785</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11208; 25061</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>23978; 45776</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18642; 37453</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15738; 31122</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>